--- a/Datos/Database by set/Set with text box/Xlsx sets/Arena League 2004 (PAL04).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Arena League 2004 (PAL04).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,392 +444,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ashnod's Coupon</t>
+          <t>("Ashnod's Coupon", ['{0}', 'Artifact', '{T}, Sacrifice Ashnod’s Coupon: Target player gets you target drink. You pay any costs for the drink.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{0}</t>
+          <t>('Booster Tutor', ['{B}', 'Instant', 'Open a sealed Magic booster pack, reveal the cards, and put one of them into your hand. (Remove that card from your deck before beginning a new game.)'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Artifact</t>
+          <t>('Circle of Protection: Art', ['{1}{W}', 'Enchantment', 'As Circle of Protection: Art enters the battlefield, choose an artist.', '{1}{W}: The next time a source of your choice with art by the chosen artist would deal damage to you this turn, prevent that damage.', '{1}{W}: Return Circle of Protection: Art to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{T}, Sacrifice Ashnod’s Coupon: Target player gets you target drink. You pay any costs for the drink.</t>
+          <t>('Darksteel Ingot', ['{3}', 'Artifact', 'Indestructible', '{T}: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Booster Tutor</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{B}</t>
+          <t>('Glacial Ray', ['{1}{R}', 'Instant — Arcane', 'Glacial Ray deals 2 damage to any target.', 'Splice onto Arcane {1}{R} (As you cast an Arcane spell, you may reveal this card from your hand and pay its splice cost. If you do, add this card’s effects to that spell.)'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Goblin Mime', ['{1}{R}', 'Creature — Goblin Mime', 'When you speak, sacrifice Goblin Mime.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Open a sealed Magic booster pack, reveal the cards, and put one of them into your hand. (Remove that card from your deck before beginning a new game.)</t>
+          <t>("Granny's Payback", ['{7}{G}', 'Sorcery', 'You gain life equal to your age.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Circle of Protection: Art</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{1}{W}</t>
+          <t>('Mise', ['{U}', 'Instant', 'Choose a nonland card name, then reveal the top card of your library. If that card has the chosen name, you draw three cards.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Enchantment</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>As Circle of Protection: Art enters the battlefield, choose an artist.</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{1}{W}: The next time a source of your choice with art by the chosen artist would deal damage to you this turn, prevent that damage.</t>
+          <t>('Serum Visions', ['{U}', 'Sorcery', 'Draw a card. Scry 2.'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{1}{W}: Return Circle of Protection: Art to its owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Darksteel Ingot</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{3}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Indestructible</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{T}: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Basic Land — Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>({T}: Add {G}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Glacial Ray</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Instant — Arcane</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Glacial Ray deals 2 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Splice onto Arcane {1}{R} (As you cast an Arcane spell, you may reveal this card from your hand and pay its splice cost. If you do, add this card’s effects to that spell.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Goblin Mime</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Mime</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>When you speak, sacrifice Goblin Mime.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Granny's Payback</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{7}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>You gain life equal to your age.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Basic Land — Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>({T}: Add {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Mise</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Choose a nonland card name, then reveal the top card of your library. If that card has the chosen name, you draw three cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Basic Land — Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>({T}: Add {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Basic Land — Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>({T}: Add {W}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Serum Visions</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Draw a card. Scry 2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Basic Land — Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>({T}: Add {B}.)</t>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
